--- a/biology/Écologie/Guilde_(écologie)/Guilde_(écologie).xlsx
+++ b/biology/Écologie/Guilde_(écologie)/Guilde_(écologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guilde_(%C3%A9cologie)</t>
+          <t>Guilde_(écologie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En écologie, une guilde ou guilde écologique (GE) est un ensemble d'espèces appartenant à un même groupe taxonomique ou fonctionnel qui exploitent une ressource commune de la même manière en même temps, donc partageant la même niche écologique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En écologie, une guilde ou guilde écologique (GE) est un ensemble d'espèces appartenant à un même groupe taxonomique ou fonctionnel qui exploitent une ressource commune de la même manière en même temps, donc partageant la même niche écologique.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Guilde_(%C3%A9cologie)</t>
+          <t>Guilde_(écologie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Origine du concept</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1967, Richard B. Root (en) est l'auteur d'une étude[2] qui est à l'origine du développement du concept de « guilde » en écologie[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1967, Richard B. Root (en) est l'auteur d'une étude qui est à l'origine du développement du concept de « guilde » en écologie.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Guilde_(%C3%A9cologie)</t>
+          <t>Guilde_(écologie)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Éléments de définition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On peut parler de guildes d'insectes, d'oiseaux (exemple : guilde d'oiseaux insectivores en forêt tropicale[4], de reptiles[5], plus rarement de mammifères (rongeurs ou chauve-souris dans une forêt par exemple[6]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On peut parler de guildes d'insectes, d'oiseaux (exemple : guilde d'oiseaux insectivores en forêt tropicale, de reptiles, plus rarement de mammifères (rongeurs ou chauve-souris dans une forêt par exemple).
 Le mot guilde n'est généralement pas utilisé pour les microbes.
 </t>
         </is>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Guilde_(%C3%A9cologie)</t>
+          <t>Guilde_(écologie)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles sont classées en fonction de :
 la manière dont elles acquièrent leurs nutriments ;
